--- a/speed_part1.xlsx
+++ b/speed_part1.xlsx
@@ -500,22 +500,22 @@
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="2">
-        <v>10240</v>
+        <v>6656</v>
       </c>
       <c r="B3" s="2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="C3" s="2">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D3" s="2">
         <v>3.2</v>
       </c>
       <c r="E3" s="2">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="F3" s="2">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -556,10 +556,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D7" s="2">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="E7" s="2">
         <v>3.2</v>
@@ -598,10 +598,10 @@
         <v>2.1</v>
       </c>
       <c r="C11" s="2">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="D11" s="2">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -623,7 +623,7 @@
         <v>2.4</v>
       </c>
       <c r="B15" s="2">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>
